--- a/InputData/elec/BTC/BAU Transmission Capacity.xlsx
+++ b/InputData/elec/BTC/BAU Transmission Capacity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-25600" yWindow="2620" windowWidth="25600" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -85,6 +85,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -541,7 +544,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="8.83203125" customWidth="1" style="2" min="1" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="8.83203125" customWidth="1" style="2" min="2" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -554,6 +558,9 @@
         <is>
           <t>Wisconsin</t>
         </is>
+      </c>
+      <c r="C1" s="10" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
